--- a/31.請求書.xlsx
+++ b/31.請求書.xlsx
@@ -7,14 +7,20 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="請求書" sheetId="1" r:id="rId1"/>
+    <sheet name="納品書" sheetId="7" r:id="rId2"/>
+    <sheet name="御見積書" sheetId="8" r:id="rId3"/>
+    <sheet name="商品リスト" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">納品書!$A$10:$E$21</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -40,22 +46,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>令和x年xx月nn日</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>下記の通り、ご請求申し上げます。</t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
@@ -118,15 +108,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラウンドテーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OAチェア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホワイトボード</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -170,6 +152,114 @@
     </rPh>
     <rPh sb="9" eb="13">
       <t>ジュウキハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本体価格</t>
+    <rPh sb="0" eb="4">
+      <t>ホンタイカカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の通り、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の通り、お見積り申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミツモ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラウンドテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミーティングテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OAチェア　肘つき</t>
+    <rPh sb="6" eb="7">
+      <t>ヒジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッシュチェア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スチールラック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホワイトボード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振込先</t>
+    <rPh sb="0" eb="3">
+      <t>フリコミサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ABC銀行　五反田支店</t>
+    <rPh sb="3" eb="5">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ゴタンダシテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>普通　1223467986</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>御見積書</t>
+    <rPh sb="0" eb="4">
+      <t>オミツモリショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -178,8 +268,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="#,###&quot;円&quot;"/>
+    <numFmt numFmtId="178" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -235,14 +327,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +361,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,17 +415,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -330,56 +425,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -390,6 +498,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -399,6 +512,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="注文番号"/>
+    <tableColumn id="2" name="商品名"/>
+    <tableColumn id="3" name="本体価格"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,236 +813,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="H3" s="4" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="H4" s="20">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <f>IFERROR(E21,0)</f>
+        <v>194370</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <f>E18</f>
-        <v>194370</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="F7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="F8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],2,FALSE),"")</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="7">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v>15900</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],2,FALSE),"")</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="7">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v>19900</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12:E18" si="0">IFERROR(C12*D12,0)</f>
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],2,FALSE),"")</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="7">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v>9800</v>
+      </c>
+      <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>1001</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="15">
-        <v>15900</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="15">
-        <f>C11*D11</f>
-        <v>31800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>1002</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="15">
-        <v>19900</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" ref="E12:E14" si="0">C12*D12</f>
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15">
-        <v>9800</v>
-      </c>
-      <c r="D13" s="11">
-        <v>8</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>78400</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="4">
         <v>3002</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],2,FALSE),"")</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="7">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
         <v>26700</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A18,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A18,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7">
         <f>SUM(E11:E14)</f>
         <v>176700</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="12">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
         <v>0.1</v>
       </c>
-      <c r="E17" s="15">
-        <f>E16*0.1</f>
+      <c r="E20" s="7">
+        <f>ROUNDDOWN(E19*D20,0)</f>
         <v>17670</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15">
-        <f>E16+E17</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="7">
+        <f>E19+E20</f>
         <v>194370</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="H4" s="20">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="F7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12:E18" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A18,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A18,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7">
+        <f>SUM(E11:E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="7">
+        <f>ROUNDDOWN(E19*D20,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="7">
+        <f>E19+E20</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A10:E21"/>
+  <mergeCells count="9">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="H4" s="20">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12:E18" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A18,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A18,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7">
+        <f>SUM(E11:E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="7">
+        <f>ROUNDDOWN(E19*D20,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="7">
+        <f>E19+E20</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">
@@ -926,4 +1722,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>